--- a/natmiOut/OldD4/LR-pairs_lrc2p/Plau-St14.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Plau-St14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H2">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I2">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J2">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.239716295177754</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N2">
-        <v>0.239716295177754</v>
+        <v>1.818468</v>
       </c>
       <c r="O2">
-        <v>0.2196287645372919</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P2">
-        <v>0.2196287645372919</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q2">
-        <v>3.371426304286102</v>
+        <v>15.339400506316</v>
       </c>
       <c r="R2">
-        <v>3.371426304286102</v>
+        <v>138.054604556844</v>
       </c>
       <c r="S2">
-        <v>0.01648711179557694</v>
+        <v>0.03745208286475019</v>
       </c>
       <c r="T2">
-        <v>0.01648711179557694</v>
+        <v>0.03973792630829909</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H3">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I3">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J3">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.36193573997906</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N3">
-        <v>0.36193573997906</v>
+        <v>1.296278</v>
       </c>
       <c r="O3">
-        <v>0.3316065741569512</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P3">
-        <v>0.3316065741569512</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q3">
-        <v>5.090349295286028</v>
+        <v>10.93454897723044</v>
       </c>
       <c r="R3">
-        <v>5.090349295286028</v>
+        <v>98.410940795074</v>
       </c>
       <c r="S3">
-        <v>0.02489307205179683</v>
+        <v>0.02669736892359539</v>
       </c>
       <c r="T3">
-        <v>0.02489307205179683</v>
+        <v>0.02832681116141133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H4">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I4">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J4">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.338582694784783</v>
+        <v>0.552724</v>
       </c>
       <c r="N4">
-        <v>0.338582694784783</v>
+        <v>1.658172</v>
       </c>
       <c r="O4">
-        <v>0.3102104464535785</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P4">
-        <v>0.3102104464535785</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q4">
-        <v>4.761906580139002</v>
+        <v>13.98724883603067</v>
       </c>
       <c r="R4">
-        <v>4.761906580139002</v>
+        <v>125.885239524276</v>
       </c>
       <c r="S4">
-        <v>0.02328690561826462</v>
+        <v>0.03415072200776069</v>
       </c>
       <c r="T4">
-        <v>0.02328690561826462</v>
+        <v>0.0362350708082215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.0642349815482</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H5">
-        <v>14.0642349815482</v>
+        <v>75.918083</v>
       </c>
       <c r="I5">
-        <v>0.07506808969358612</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J5">
-        <v>0.07506808969358612</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.151226562402245</v>
+        <v>0.16638</v>
       </c>
       <c r="N5">
-        <v>0.151226562402245</v>
+        <v>0.49914</v>
       </c>
       <c r="O5">
-        <v>0.1385542148521784</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P5">
-        <v>0.1385542148521784</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q5">
-        <v>2.126885909076936</v>
+        <v>4.21041688318</v>
       </c>
       <c r="R5">
-        <v>2.126885909076936</v>
+        <v>37.89375194862</v>
       </c>
       <c r="S5">
-        <v>0.01040100022794773</v>
+        <v>0.01027998988220382</v>
       </c>
       <c r="T5">
-        <v>0.01040100022794773</v>
+        <v>0.01090741686822337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.3255803135444</v>
+        <v>25.30602766666667</v>
       </c>
       <c r="H6">
-        <v>61.3255803135444</v>
+        <v>75.918083</v>
       </c>
       <c r="I6">
-        <v>0.3273263117068315</v>
+        <v>0.1185131313031909</v>
       </c>
       <c r="J6">
-        <v>0.3273263117068315</v>
+        <v>0.1222333681589157</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.239716295177754</v>
+        <v>0.1607635</v>
       </c>
       <c r="N6">
-        <v>0.239716295177754</v>
+        <v>0.321527</v>
       </c>
       <c r="O6">
-        <v>0.2196287645372919</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P6">
-        <v>0.2196287645372919</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q6">
-        <v>14.70074091238867</v>
+        <v>4.068285578790166</v>
       </c>
       <c r="R6">
-        <v>14.70074091238867</v>
+        <v>24.409713472741</v>
       </c>
       <c r="S6">
-        <v>0.07189027344071991</v>
+        <v>0.009932967624880835</v>
       </c>
       <c r="T6">
-        <v>0.07189027344071991</v>
+        <v>0.007026143012760457</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H7">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I7">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J7">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.36193573997906</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N7">
-        <v>0.36193573997906</v>
+        <v>1.818468</v>
       </c>
       <c r="O7">
-        <v>0.3316065741569512</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P7">
-        <v>0.3316065741569512</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q7">
-        <v>22.19591929042797</v>
+        <v>39.74563396815199</v>
       </c>
       <c r="R7">
-        <v>22.19591929042797</v>
+        <v>357.7107057133679</v>
       </c>
       <c r="S7">
-        <v>0.1085435568565327</v>
+        <v>0.09704139195494278</v>
       </c>
       <c r="T7">
-        <v>0.1085435568565327</v>
+        <v>0.1029641981805437</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H8">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I8">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J8">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.338582694784783</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N8">
-        <v>0.338582694784783</v>
+        <v>1.296278</v>
       </c>
       <c r="O8">
-        <v>0.3102104464535785</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P8">
-        <v>0.3102104464535785</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q8">
-        <v>20.7637802418005</v>
+        <v>28.33230549504756</v>
       </c>
       <c r="R8">
-        <v>20.7637802418005</v>
+        <v>254.990749455428</v>
       </c>
       <c r="S8">
-        <v>0.1015400412905794</v>
+        <v>0.06917505366086693</v>
       </c>
       <c r="T8">
-        <v>0.1015400412905794</v>
+        <v>0.07339707099001956</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>61.3255803135444</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H9">
-        <v>61.3255803135444</v>
+        <v>196.709926</v>
       </c>
       <c r="I9">
-        <v>0.3273263117068315</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J9">
-        <v>0.3273263117068315</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.151226562402245</v>
+        <v>0.552724</v>
       </c>
       <c r="N9">
-        <v>0.151226562402245</v>
+        <v>1.658172</v>
       </c>
       <c r="O9">
-        <v>0.1385542148521784</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P9">
-        <v>0.1385542148521784</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q9">
-        <v>9.274056698140109</v>
+        <v>36.24209904614133</v>
       </c>
       <c r="R9">
-        <v>9.274056698140109</v>
+        <v>326.178891415272</v>
       </c>
       <c r="S9">
-        <v>0.04535244011899946</v>
+        <v>0.08848729753875867</v>
       </c>
       <c r="T9">
-        <v>0.04535244011899946</v>
+        <v>0.09388801476046242</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>44.5908202137173</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H10">
-        <v>44.5908202137173</v>
+        <v>196.709926</v>
       </c>
       <c r="I10">
-        <v>0.2380042494814336</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J10">
-        <v>0.2380042494814336</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.239716295177754</v>
+        <v>0.16638</v>
       </c>
       <c r="N10">
-        <v>0.239716295177754</v>
+        <v>0.49914</v>
       </c>
       <c r="O10">
-        <v>0.2196287645372919</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P10">
-        <v>0.2196287645372919</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q10">
-        <v>10.68914622056962</v>
+        <v>10.90953249596</v>
       </c>
       <c r="R10">
-        <v>10.68914622056962</v>
+        <v>98.18579246364</v>
       </c>
       <c r="S10">
-        <v>0.05227257926823266</v>
+        <v>0.02663628965722253</v>
       </c>
       <c r="T10">
-        <v>0.05227257926823266</v>
+        <v>0.0282620039944814</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>44.5908202137173</v>
+        <v>65.56997533333333</v>
       </c>
       <c r="H11">
-        <v>44.5908202137173</v>
+        <v>196.709926</v>
       </c>
       <c r="I11">
-        <v>0.2380042494814336</v>
+        <v>0.307077159583692</v>
       </c>
       <c r="J11">
-        <v>0.2380042494814336</v>
+        <v>0.3167165957716697</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.36193573997906</v>
+        <v>0.1607635</v>
       </c>
       <c r="N11">
-        <v>0.36193573997906</v>
+        <v>0.321527</v>
       </c>
       <c r="O11">
-        <v>0.3316065741569512</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P11">
-        <v>0.3316065741569512</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q11">
-        <v>16.139011510325</v>
+        <v>10.54125872950033</v>
       </c>
       <c r="R11">
-        <v>16.139011510325</v>
+        <v>63.247552377002</v>
       </c>
       <c r="S11">
-        <v>0.07892377380533451</v>
+        <v>0.02573712677190104</v>
       </c>
       <c r="T11">
-        <v>0.07892377380533451</v>
+        <v>0.01820530784616264</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H12">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I12">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J12">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.338582694784783</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N12">
-        <v>0.338582694784783</v>
+        <v>1.818468</v>
       </c>
       <c r="O12">
-        <v>0.3102104464535785</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P12">
-        <v>0.3102104464535785</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q12">
-        <v>15.09768007062418</v>
+        <v>32.031422366576</v>
       </c>
       <c r="R12">
-        <v>15.09768007062418</v>
+        <v>288.282801299184</v>
       </c>
       <c r="S12">
-        <v>0.07383140448948439</v>
+        <v>0.07820667334781851</v>
       </c>
       <c r="T12">
-        <v>0.07383140448948439</v>
+        <v>0.08297992486922155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>44.5908202137173</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H13">
-        <v>44.5908202137173</v>
+        <v>158.530588</v>
       </c>
       <c r="I13">
-        <v>0.2380042494814336</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J13">
-        <v>0.2380042494814336</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.151226562402245</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N13">
-        <v>0.151226562402245</v>
+        <v>1.296278</v>
       </c>
       <c r="O13">
-        <v>0.1385542148521784</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P13">
-        <v>0.1385542148521784</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q13">
-        <v>6.743316455617007</v>
+        <v>22.83330150571823</v>
       </c>
       <c r="R13">
-        <v>6.743316455617007</v>
+        <v>205.499713551464</v>
       </c>
       <c r="S13">
-        <v>0.03297649191838203</v>
+        <v>0.05574889968586937</v>
       </c>
       <c r="T13">
-        <v>0.03297649191838203</v>
+        <v>0.05915146763628768</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>49.0585253820883</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H14">
-        <v>49.0585253820883</v>
+        <v>158.530588</v>
       </c>
       <c r="I14">
-        <v>0.2618507006210641</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J14">
-        <v>0.2618507006210641</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.239716295177754</v>
+        <v>0.552724</v>
       </c>
       <c r="N14">
-        <v>0.239716295177754</v>
+        <v>1.658172</v>
       </c>
       <c r="O14">
-        <v>0.2196287645372919</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P14">
-        <v>0.2196287645372919</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q14">
-        <v>11.76012795147802</v>
+        <v>29.20788690723734</v>
       </c>
       <c r="R14">
-        <v>11.76012795147802</v>
+        <v>262.870982165136</v>
       </c>
       <c r="S14">
-        <v>0.05750994587062861</v>
+        <v>0.07131283913629435</v>
       </c>
       <c r="T14">
-        <v>0.05750994587062861</v>
+        <v>0.0756653336656168</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>49.0585253820883</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H15">
-        <v>49.0585253820883</v>
+        <v>158.530588</v>
       </c>
       <c r="I15">
-        <v>0.2618507006210641</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J15">
-        <v>0.2618507006210641</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.36193573997906</v>
+        <v>0.16638</v>
       </c>
       <c r="N15">
-        <v>0.36193573997906</v>
+        <v>0.49914</v>
       </c>
       <c r="O15">
-        <v>0.3316065741569512</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P15">
-        <v>0.3316065741569512</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q15">
-        <v>17.75603368644762</v>
+        <v>8.792106410480002</v>
       </c>
       <c r="R15">
-        <v>17.75603368644762</v>
+        <v>79.12895769432002</v>
       </c>
       <c r="S15">
-        <v>0.08683141377354853</v>
+        <v>0.0214664645926297</v>
       </c>
       <c r="T15">
-        <v>0.08683141377354853</v>
+        <v>0.02277664479068273</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>49.0585253820883</v>
+        <v>52.84352933333334</v>
       </c>
       <c r="H16">
-        <v>49.0585253820883</v>
+        <v>158.530588</v>
       </c>
       <c r="I16">
-        <v>0.2618507006210641</v>
+        <v>0.2474766965759142</v>
       </c>
       <c r="J16">
-        <v>0.2618507006210641</v>
+        <v>0.2552452190797994</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.338582694784783</v>
+        <v>0.1607635</v>
       </c>
       <c r="N16">
-        <v>0.338582694784783</v>
+        <v>0.321527</v>
       </c>
       <c r="O16">
-        <v>0.3102104464535785</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P16">
-        <v>0.3102104464535785</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q16">
-        <v>16.61036772603513</v>
+        <v>8.495310727979335</v>
       </c>
       <c r="R16">
-        <v>16.61036772603513</v>
+        <v>50.97186436787601</v>
       </c>
       <c r="S16">
-        <v>0.08122882274384263</v>
+        <v>0.02074181981330223</v>
       </c>
       <c r="T16">
-        <v>0.08122882274384263</v>
+        <v>0.01467184811799064</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>49.0585253820883</v>
+        <v>50.313151</v>
       </c>
       <c r="H17">
-        <v>49.0585253820883</v>
+        <v>150.939453</v>
       </c>
       <c r="I17">
-        <v>0.2618507006210641</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J17">
-        <v>0.2618507006210641</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.151226562402245</v>
+        <v>0.6061559999999999</v>
       </c>
       <c r="N17">
-        <v>0.151226562402245</v>
+        <v>1.818468</v>
       </c>
       <c r="O17">
-        <v>0.1385542148521784</v>
+        <v>0.3160163135757245</v>
       </c>
       <c r="P17">
-        <v>0.1385542148521784</v>
+        <v>0.3250988409043574</v>
       </c>
       <c r="Q17">
-        <v>7.418952150056496</v>
+        <v>30.49761835755599</v>
       </c>
       <c r="R17">
-        <v>7.418952150056496</v>
+        <v>274.478565218004</v>
       </c>
       <c r="S17">
-        <v>0.03628051823304437</v>
+        <v>0.07446179721524405</v>
       </c>
       <c r="T17">
-        <v>0.03628051823304437</v>
+        <v>0.07900648466491145</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>18.3138813798692</v>
+        <v>50.313151</v>
       </c>
       <c r="H18">
-        <v>18.3138813798692</v>
+        <v>150.939453</v>
       </c>
       <c r="I18">
-        <v>0.09775064849708451</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J18">
-        <v>0.09775064849708451</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.239716295177754</v>
+        <v>0.4320926666666667</v>
       </c>
       <c r="N18">
-        <v>0.239716295177754</v>
+        <v>1.296278</v>
       </c>
       <c r="O18">
-        <v>0.2196287645372919</v>
+        <v>0.2252692898249037</v>
       </c>
       <c r="P18">
-        <v>0.2196287645372919</v>
+        <v>0.2317436849533886</v>
       </c>
       <c r="Q18">
-        <v>4.390135794707098</v>
+        <v>21.73994358399267</v>
       </c>
       <c r="R18">
-        <v>4.390135794707098</v>
+        <v>195.659492255934</v>
       </c>
       <c r="S18">
-        <v>0.02146885416213376</v>
+        <v>0.05307939956632844</v>
       </c>
       <c r="T18">
-        <v>0.02146885416213376</v>
+        <v>0.05631903774411323</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>18.3138813798692</v>
+        <v>50.313151</v>
       </c>
       <c r="H19">
-        <v>18.3138813798692</v>
+        <v>150.939453</v>
       </c>
       <c r="I19">
-        <v>0.09775064849708451</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J19">
-        <v>0.09775064849708451</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.36193573997906</v>
+        <v>0.552724</v>
       </c>
       <c r="N19">
-        <v>0.36193573997906</v>
+        <v>1.658172</v>
       </c>
       <c r="O19">
-        <v>0.3316065741569512</v>
+        <v>0.2881598151380647</v>
       </c>
       <c r="P19">
-        <v>0.3316065741569512</v>
+        <v>0.2964417274431336</v>
       </c>
       <c r="Q19">
-        <v>6.628448209111688</v>
+        <v>27.809286073324</v>
       </c>
       <c r="R19">
-        <v>6.628448209111688</v>
+        <v>250.283574659916</v>
       </c>
       <c r="S19">
-        <v>0.03241475766973852</v>
+        <v>0.06789806981040947</v>
       </c>
       <c r="T19">
-        <v>0.03241475766973852</v>
+        <v>0.07204214794529547</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,60 +1647,60 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.3138813798692</v>
+        <v>50.313151</v>
       </c>
       <c r="H20">
-        <v>18.3138813798692</v>
+        <v>150.939453</v>
       </c>
       <c r="I20">
-        <v>0.09775064849708451</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J20">
-        <v>0.09775064849708451</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.338582694784783</v>
+        <v>0.16638</v>
       </c>
       <c r="N20">
-        <v>0.338582694784783</v>
+        <v>0.49914</v>
       </c>
       <c r="O20">
-        <v>0.3102104464535785</v>
+        <v>0.08674135742734386</v>
       </c>
       <c r="P20">
-        <v>0.3102104464535785</v>
+        <v>0.08923436400805568</v>
       </c>
       <c r="Q20">
-        <v>6.200763309564974</v>
+        <v>8.37110206338</v>
       </c>
       <c r="R20">
-        <v>6.200763309564974</v>
+        <v>75.33991857042</v>
       </c>
       <c r="S20">
-        <v>0.03032327231140741</v>
+        <v>0.02043855677527288</v>
       </c>
       <c r="T20">
-        <v>0.03032327231140741</v>
+        <v>0.02168599983922945</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.3138813798692</v>
+        <v>50.313151</v>
       </c>
       <c r="H21">
-        <v>18.3138813798692</v>
+        <v>150.939453</v>
       </c>
       <c r="I21">
-        <v>0.09775064849708451</v>
+        <v>0.235626434511272</v>
       </c>
       <c r="J21">
-        <v>0.09775064849708451</v>
+        <v>0.2430229663235089</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.151226562402245</v>
+        <v>0.1607635</v>
       </c>
       <c r="N21">
-        <v>0.151226562402245</v>
+        <v>0.321527</v>
       </c>
       <c r="O21">
-        <v>0.1385542148521784</v>
+        <v>0.08381322403396319</v>
       </c>
       <c r="P21">
-        <v>0.1385542148521784</v>
+        <v>0.05748138269106486</v>
       </c>
       <c r="Q21">
-        <v>2.769545325320102</v>
+        <v>8.0885182507885</v>
       </c>
       <c r="R21">
-        <v>2.769545325320102</v>
+        <v>48.531109504731</v>
       </c>
       <c r="S21">
-        <v>0.01354376435380482</v>
+        <v>0.0197486111440172</v>
       </c>
       <c r="T21">
-        <v>0.01354376435380482</v>
+        <v>0.01396929612995939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>19.496631</v>
+      </c>
+      <c r="H22">
+        <v>38.993262</v>
+      </c>
+      <c r="I22">
+        <v>0.09130657802593077</v>
+      </c>
+      <c r="J22">
+        <v>0.06278185066610624</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6061559999999999</v>
+      </c>
+      <c r="N22">
+        <v>1.818468</v>
+      </c>
+      <c r="O22">
+        <v>0.3160163135757245</v>
+      </c>
+      <c r="P22">
+        <v>0.3250988409043574</v>
+      </c>
+      <c r="Q22">
+        <v>11.817999860436</v>
+      </c>
+      <c r="R22">
+        <v>70.90799916261599</v>
+      </c>
+      <c r="S22">
+        <v>0.02885436819296889</v>
+      </c>
+      <c r="T22">
+        <v>0.0204103068813816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>19.496631</v>
+      </c>
+      <c r="H23">
+        <v>38.993262</v>
+      </c>
+      <c r="I23">
+        <v>0.09130657802593077</v>
+      </c>
+      <c r="J23">
+        <v>0.06278185066610624</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4320926666666667</v>
+      </c>
+      <c r="N23">
+        <v>1.296278</v>
+      </c>
+      <c r="O23">
+        <v>0.2252692898249037</v>
+      </c>
+      <c r="P23">
+        <v>0.2317436849533886</v>
+      </c>
+      <c r="Q23">
+        <v>8.424351279806</v>
+      </c>
+      <c r="R23">
+        <v>50.546107678836</v>
+      </c>
+      <c r="S23">
+        <v>0.02056856798824359</v>
+      </c>
+      <c r="T23">
+        <v>0.01454929742155682</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>19.496631</v>
+      </c>
+      <c r="H24">
+        <v>38.993262</v>
+      </c>
+      <c r="I24">
+        <v>0.09130657802593077</v>
+      </c>
+      <c r="J24">
+        <v>0.06278185066610624</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.552724</v>
+      </c>
+      <c r="N24">
+        <v>1.658172</v>
+      </c>
+      <c r="O24">
+        <v>0.2881598151380647</v>
+      </c>
+      <c r="P24">
+        <v>0.2964417274431336</v>
+      </c>
+      <c r="Q24">
+        <v>10.776255872844</v>
+      </c>
+      <c r="R24">
+        <v>64.657535237064</v>
+      </c>
+      <c r="S24">
+        <v>0.02631088664484149</v>
+      </c>
+      <c r="T24">
+        <v>0.01861116026353738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>19.496631</v>
+      </c>
+      <c r="H25">
+        <v>38.993262</v>
+      </c>
+      <c r="I25">
+        <v>0.09130657802593077</v>
+      </c>
+      <c r="J25">
+        <v>0.06278185066610624</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.16638</v>
+      </c>
+      <c r="N25">
+        <v>0.49914</v>
+      </c>
+      <c r="O25">
+        <v>0.08674135742734386</v>
+      </c>
+      <c r="P25">
+        <v>0.08923436400805568</v>
+      </c>
+      <c r="Q25">
+        <v>3.24384946578</v>
+      </c>
+      <c r="R25">
+        <v>19.46309679468</v>
+      </c>
+      <c r="S25">
+        <v>0.007920056520014922</v>
+      </c>
+      <c r="T25">
+        <v>0.005602298515438717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>19.496631</v>
+      </c>
+      <c r="H26">
+        <v>38.993262</v>
+      </c>
+      <c r="I26">
+        <v>0.09130657802593077</v>
+      </c>
+      <c r="J26">
+        <v>0.06278185066610624</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.1607635</v>
+      </c>
+      <c r="N26">
+        <v>0.321527</v>
+      </c>
+      <c r="O26">
+        <v>0.08381322403396319</v>
+      </c>
+      <c r="P26">
+        <v>0.05748138269106486</v>
+      </c>
+      <c r="Q26">
+        <v>3.1343466377685</v>
+      </c>
+      <c r="R26">
+        <v>12.537386551074</v>
+      </c>
+      <c r="S26">
+        <v>0.007652698679861875</v>
+      </c>
+      <c r="T26">
+        <v>0.003608787584191738</v>
       </c>
     </row>
   </sheetData>
